--- a/conde_ny.xlsx
+++ b/conde_ny.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hot List 2023   Readers' Choice Awards 2023</t>
+          <t>Hot List, 2023. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -540,7 +540,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2023</t>
+          <t>Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -706,7 +706,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2019</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019.</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -758,7 +758,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2019, 2020, 2021</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -918,7 +918,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gold List 2018, 2019, 2022   Readers' Choice Awards 2017, 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2018. Gold List, 2019. Gold List, 2022. Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -981,7 +981,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hot List 2023   Readers' Choice Awards 2023</t>
+          <t>Hot List, 2023. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2021, 2023</t>
+          <t>Readers' Choice Awards, 2021. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hot List 2018, 2019</t>
+          <t>Hot List, 2018. Hot List, 2019.</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Gold List 2020, 2024   Readers' Choice Awards 2018, 2021</t>
+          <t>Gold List, 2020. Gold List, 2024. Readers' Choice Awards, 2018. Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2023</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2019</t>
+          <t>Readers' Choice Awards, 2019.</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2019, 2020, 2021</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hot List 2018   Readers' Choice Awards 2018, 2019, 2020, 2021, 2023</t>
+          <t>Hot List, 2018. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2019</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2019.</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Gold List 2019   Readers' Choice Awards 2018, 2019</t>
+          <t>Gold List, 2019. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019.</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Gold List 2019   Readers' Choice Awards 2018, 2019, 2022, 2023</t>
+          <t>Gold List, 2019. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2018, 2020, 2021</t>
+          <t>Readers' Choice Awards, 2018. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gold List 2020   Hot List 2018</t>
+          <t>Gold List, 2020. Hot List, 2018.</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gold List 2020   Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2020. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2019, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2019. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Gold List 2024</t>
+          <t>Gold List, 2024.</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2021</t>
+          <t>Readers' Choice Awards, 2021.</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Gold List 2020   Readers' Choice Awards 2018, 2019, 2020, 2021, 2022, 2023</t>
+          <t>Gold List, 2020. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2020, 2021, 2022</t>
+          <t>Readers' Choice Awards, 2020. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022.</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017</t>
+          <t>Readers' Choice Awards, 2017.</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Readers' Choice Awards 2017, 2018, 2019, 2021, 2022, 2023</t>
+          <t>Readers' Choice Awards, 2017. Readers' Choice Awards, 2018. Readers' Choice Awards, 2019. Readers' Choice Awards, 2021. Readers' Choice Awards, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Hot List 2023</t>
+          <t>Hot List, 2023.</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hot List 2022</t>
+          <t>Hot List, 2022.</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hot List 2023</t>
+          <t>Hot List, 2023.</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Hot List 2022   Readers' Choice Awards 2023</t>
+          <t>Hot List, 2022. Readers' Choice Awards, 2023.</t>
         </is>
       </c>
       <c r="C43" t="n">
